--- a/Tools/Luban/Datas/Drones.xlsx
+++ b/Tools/Luban/Datas/Drones.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54B23D10-3CAF-4371-8921-52364D7A81E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CF5A693-2E84-4F8A-A6E2-4B31D49FA455}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-109" yWindow="-109" windowWidth="23452" windowHeight="12561" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -587,7 +587,7 @@
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="G5" sqref="G5"/>
+      <selection pane="bottomLeft" activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.95" x14ac:dyDescent="0.25"/>
@@ -688,7 +688,7 @@
         <v>15</v>
       </c>
       <c r="K2" s="7" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="L2" s="2" t="s">
         <v>15</v>
@@ -802,13 +802,13 @@
         <v>0</v>
       </c>
       <c r="J5" s="4">
-        <v>3</v>
+        <v>0.5</v>
       </c>
       <c r="K5" s="4">
         <v>1</v>
       </c>
       <c r="L5" s="4">
-        <v>100</v>
+        <v>1500</v>
       </c>
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>

--- a/Tools/Luban/Datas/Drones.xlsx
+++ b/Tools/Luban/Datas/Drones.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CF5A693-2E84-4F8A-A6E2-4B31D49FA455}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AD7A1B6-A098-402E-B44D-43FC0F1B9E53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-109" yWindow="-109" windowWidth="23452" windowHeight="12561" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="34">
   <si>
     <t>##var</t>
   </si>
@@ -152,6 +152,18 @@
   </si>
   <si>
     <t>子弹速度</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>收藏家</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Collector</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>帮助你收集经验</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -587,7 +599,7 @@
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="J5" sqref="J5"/>
+      <selection pane="bottomLeft" activeCell="F6" sqref="F6:L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.95" x14ac:dyDescent="0.25"/>
@@ -820,19 +832,41 @@
       <c r="T5" s="3"/>
       <c r="U5" s="3"/>
     </row>
-    <row r="6" spans="1:21" ht="18.149999999999999" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:21" ht="36.299999999999997" x14ac:dyDescent="0.45">
       <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="3"/>
+      <c r="B6" s="3">
+        <v>1002</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F6" s="4">
+        <v>200</v>
+      </c>
+      <c r="G6" s="4">
+        <v>300</v>
+      </c>
+      <c r="H6" s="4">
+        <v>10</v>
+      </c>
+      <c r="I6" s="4">
+        <v>0</v>
+      </c>
+      <c r="J6" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="K6" s="4">
+        <v>1</v>
+      </c>
+      <c r="L6" s="4">
+        <v>1500</v>
+      </c>
       <c r="M6" s="4"/>
       <c r="N6" s="3"/>
       <c r="O6" s="3"/>

--- a/Tools/Luban/Datas/Drones.xlsx
+++ b/Tools/Luban/Datas/Drones.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AD7A1B6-A098-402E-B44D-43FC0F1B9E53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{402003C5-CD60-41D3-BD27-B618FEE82B34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-109" yWindow="-109" windowWidth="23452" windowHeight="12561" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -599,7 +599,7 @@
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="F6" sqref="F6:L6"/>
+      <selection pane="bottomLeft" activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.95" x14ac:dyDescent="0.25"/>
@@ -850,7 +850,7 @@
         <v>200</v>
       </c>
       <c r="G6" s="4">
-        <v>300</v>
+        <v>700</v>
       </c>
       <c r="H6" s="4">
         <v>10</v>
